--- a/Netzplan_Übung.xlsx
+++ b/Netzplan_Übung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="30">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -296,7 +296,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,11 +308,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -320,7 +320,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,7 +373,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <b val="1"/>
@@ -389,6 +389,22 @@
     </dxf>
     <dxf>
       <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
         <b val="1"/>
         <i val="0"/>
         <color rgb="FFFFFFFF"/>
@@ -514,13 +530,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -529,7 +545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="812520" y="2601720"/>
+          <a:off x="812520" y="2602080"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -554,15 +570,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -571,7 +587,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2164680" y="2601720"/>
+          <a:off x="2165040" y="2602080"/>
           <a:ext cx="536040" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -596,15 +612,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -613,7 +629,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2164680" y="3422520"/>
+          <a:off x="2165040" y="3422880"/>
           <a:ext cx="536040" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -640,13 +656,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -655,7 +671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3517560" y="3422520"/>
+          <a:off x="3517560" y="3422880"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -682,13 +698,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -697,7 +713,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3517560" y="2601720"/>
+          <a:off x="3517560" y="2602080"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -724,13 +740,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>266400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -739,7 +755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4870080" y="2601720"/>
+          <a:off x="4870080" y="2602080"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -766,13 +782,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>720</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>266400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -781,7 +797,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6222240" y="2601720"/>
+          <a:off x="6222240" y="2602080"/>
           <a:ext cx="536400" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -808,13 +824,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>266400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -823,7 +839,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4870080" y="3422520"/>
+          <a:off x="4870080" y="3422880"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -850,13 +866,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266400</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -865,7 +881,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3517560" y="4235400"/>
+          <a:off x="3517560" y="4235760"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -890,13 +906,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>8280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>253800</xdr:colOff>
+      <xdr:colOff>254160</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
@@ -907,7 +923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1082880" y="3421800"/>
+          <a:off x="1083240" y="3421800"/>
           <a:ext cx="252360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -932,13 +948,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>8280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>253440</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
@@ -949,7 +965,91 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6222240" y="3421800"/>
+          <a:off x="6222600" y="3421800"/>
+          <a:ext cx="252360" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254160</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2435760" y="4234680"/>
+          <a:ext cx="252360" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254160</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4870440" y="4234680"/>
           <a:ext cx="252360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -975,98 +1075,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1440</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>253800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2435400" y="4234680"/>
-          <a:ext cx="252360" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="36000">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>253800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4870080" y="4234680"/>
-          <a:ext cx="252360" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="36000">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1075,7 +1091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2435040" y="3446280"/>
+          <a:off x="2435400" y="3446640"/>
           <a:ext cx="8280" cy="780120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1100,13 +1116,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>24120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
@@ -1117,7 +1133,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5147640" y="3437640"/>
+          <a:off x="5148000" y="3437640"/>
           <a:ext cx="360" cy="788400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1144,13 +1160,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1159,7 +1175,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1082160" y="2601720"/>
+          <a:off x="1082160" y="2602080"/>
           <a:ext cx="0" cy="803880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1186,13 +1202,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1201,7 +1217,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6492600" y="2601720"/>
+          <a:off x="6492600" y="2602080"/>
           <a:ext cx="0" cy="803880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1226,6 +1242,893 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>258480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>258480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="799200" y="2594880"/>
+          <a:ext cx="541080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2164320" y="2601000"/>
+          <a:ext cx="541080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>264600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>271080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076040" y="3576240"/>
+          <a:ext cx="276840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>258840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>264960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1069920" y="2601000"/>
+          <a:ext cx="6120" cy="975240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2435040" y="4551480"/>
+          <a:ext cx="276840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2164320" y="3576240"/>
+          <a:ext cx="541080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2435040" y="3576600"/>
+          <a:ext cx="6120" cy="975240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3516840" y="2600640"/>
+          <a:ext cx="541080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3516840" y="3576240"/>
+          <a:ext cx="541080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3516840" y="4551480"/>
+          <a:ext cx="276840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3787560" y="3576600"/>
+          <a:ext cx="6120" cy="975240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>271440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4869720" y="2601000"/>
+          <a:ext cx="541080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>271440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4869720" y="3576240"/>
+          <a:ext cx="541080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5140080" y="4551480"/>
+          <a:ext cx="276840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5139720" y="2691360"/>
+          <a:ext cx="6480" cy="885240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5140080" y="3576600"/>
+          <a:ext cx="6120" cy="975240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5140080" y="2709360"/>
+          <a:ext cx="276840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>271080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6222240" y="2601000"/>
+          <a:ext cx="541080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6222240" y="3576240"/>
+          <a:ext cx="276840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6222240" y="4551480"/>
+          <a:ext cx="276840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>264600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>271080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6486120" y="2601360"/>
+          <a:ext cx="6480" cy="1950480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1233,11 +2136,11 @@
   </sheetPr>
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="3.83"/>
   </cols>
@@ -1489,22 +2392,55 @@
         <v>0</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="8" t="n">
+        <f aca="false">A15+A17</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <f aca="false">C15</f>
+        <v>2</v>
+      </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="K15" s="6"/>
+      <c r="H15" s="8" t="n">
+        <f aca="false">F15+F17</f>
+        <v>10</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <f aca="false">H15</f>
+        <v>10</v>
+      </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="P15" s="6"/>
+      <c r="M15" s="8" t="n">
+        <f aca="false">K15+K17</f>
+        <v>16</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <f aca="false">M15</f>
+        <v>16</v>
+      </c>
       <c r="Q15" s="7"/>
-      <c r="R15" s="8"/>
-      <c r="U15" s="6"/>
+      <c r="R15" s="8" t="n">
+        <f aca="false">P15+P17</f>
+        <v>21</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <f aca="false">R15</f>
+        <v>21</v>
+      </c>
       <c r="V15" s="7"/>
-      <c r="W15" s="8"/>
-      <c r="Z15" s="6"/>
+      <c r="W15" s="8" t="n">
+        <f aca="false">U15+U17</f>
+        <v>29</v>
+      </c>
+      <c r="Z15" s="6" t="n">
+        <f aca="false">MAX(W15,W20)</f>
+        <v>29</v>
+      </c>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="8"/>
+      <c r="AB15" s="8" t="n">
+        <f aca="false">Z15+Z17</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
@@ -1543,69 +2479,160 @@
         <f aca="false">H2</f>
         <v>2</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="11" t="n">
+        <f aca="false">C18-C15</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="11" t="n">
+        <f aca="false">MIN(F15,F20)-C15</f>
+        <v>0</v>
+      </c>
       <c r="F17" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="11" t="n">
+        <f aca="false">H18-H15</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <f aca="false">K15-H15</f>
+        <v>0</v>
+      </c>
       <c r="K17" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="L17" s="11" t="n">
+        <f aca="false">M18-M15</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="11" t="n">
+        <f aca="false">P15-M15</f>
+        <v>0</v>
+      </c>
       <c r="P17" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
+      <c r="Q17" s="11" t="n">
+        <f aca="false">R18-R15</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="11" t="n">
+        <f aca="false">U15-R15</f>
+        <v>0</v>
+      </c>
       <c r="U17" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="V17" s="11" t="n">
+        <f aca="false">W18-W15</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="11" t="n">
+        <f aca="false">Z15-W15</f>
+        <v>0</v>
+      </c>
       <c r="Z17" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="AA17" s="11"/>
+      <c r="AA17" s="11" t="n">
+        <f aca="false">AB18-AB15</f>
+        <v>0</v>
+      </c>
       <c r="AB17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="n">
+        <f aca="false">C18-A17</f>
         <v>0</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="F18" s="12"/>
+      <c r="C18" s="14" t="n">
+        <f aca="false">MIN(F18,F23)</f>
+        <v>2</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <f aca="false">H18-F17</f>
+        <v>2</v>
+      </c>
       <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="K18" s="12"/>
+      <c r="H18" s="14" t="n">
+        <f aca="false">K18</f>
+        <v>10</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <f aca="false">M18-K17</f>
+        <v>10</v>
+      </c>
       <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="P18" s="12"/>
+      <c r="M18" s="14" t="n">
+        <f aca="false">P18</f>
+        <v>16</v>
+      </c>
+      <c r="P18" s="12" t="n">
+        <f aca="false">R18-P17</f>
+        <v>16</v>
+      </c>
       <c r="Q18" s="13"/>
-      <c r="R18" s="14"/>
-      <c r="U18" s="12"/>
+      <c r="R18" s="14" t="n">
+        <f aca="false">U18</f>
+        <v>21</v>
+      </c>
+      <c r="U18" s="12" t="n">
+        <f aca="false">W18-U17</f>
+        <v>21</v>
+      </c>
       <c r="V18" s="13"/>
-      <c r="W18" s="14"/>
-      <c r="Z18" s="12"/>
+      <c r="W18" s="14" t="n">
+        <f aca="false">Z18</f>
+        <v>29</v>
+      </c>
+      <c r="Z18" s="12" t="n">
+        <f aca="false">AB18-Z17</f>
+        <v>29</v>
+      </c>
       <c r="AA18" s="13"/>
-      <c r="AB18" s="14"/>
+      <c r="AB18" s="14" t="n">
+        <f aca="false">AB15</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="6"/>
+      <c r="F20" s="6" t="n">
+        <f aca="false">C15</f>
+        <v>2</v>
+      </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="K20" s="6"/>
+      <c r="H20" s="8" t="n">
+        <f aca="false">F20+F22</f>
+        <v>10</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <f aca="false">H20</f>
+        <v>10</v>
+      </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="P20" s="6"/>
+      <c r="M20" s="8" t="n">
+        <f aca="false">K20+K22</f>
+        <v>18</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <f aca="false">M20</f>
+        <v>18</v>
+      </c>
       <c r="Q20" s="7"/>
-      <c r="R20" s="8"/>
-      <c r="U20" s="6"/>
+      <c r="R20" s="8" t="n">
+        <f aca="false">P20+P22</f>
+        <v>24</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <f aca="false">MAX(R20,R25)</f>
+        <v>24</v>
+      </c>
       <c r="V20" s="7"/>
-      <c r="W20" s="8"/>
+      <c r="W20" s="8" t="n">
+        <f aca="false">U20+U22</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="9" t="s">
@@ -1633,45 +2660,105 @@
       <c r="F22" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="11" t="n">
+        <f aca="false">H23-H20</f>
+        <v>3</v>
+      </c>
+      <c r="H22" s="11" t="n">
+        <f aca="false">MIN(K20,K25)-H20</f>
+        <v>0</v>
+      </c>
       <c r="K22" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="L22" s="11" t="n">
+        <f aca="false">M23-M20</f>
+        <v>3</v>
+      </c>
+      <c r="M22" s="11" t="n">
+        <f aca="false">P20-M20</f>
+        <v>0</v>
+      </c>
       <c r="P22" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
+      <c r="Q22" s="11" t="n">
+        <f aca="false">R23-R20</f>
+        <v>3</v>
+      </c>
+      <c r="R22" s="11" t="n">
+        <f aca="false">U20-R20</f>
+        <v>0</v>
+      </c>
       <c r="U22" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+      <c r="V22" s="11" t="n">
+        <f aca="false">W23-W20</f>
+        <v>3</v>
+      </c>
+      <c r="W22" s="11" t="n">
+        <f aca="false">Z15-W20</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="12"/>
+      <c r="F23" s="12" t="n">
+        <f aca="false">H23-F22</f>
+        <v>5</v>
+      </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c r="K23" s="12"/>
+      <c r="H23" s="14" t="n">
+        <f aca="false">MIN(K23,K28)</f>
+        <v>13</v>
+      </c>
+      <c r="K23" s="12" t="n">
+        <f aca="false">M23-K22</f>
+        <v>13</v>
+      </c>
       <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
-      <c r="P23" s="12"/>
+      <c r="M23" s="14" t="n">
+        <f aca="false">P23</f>
+        <v>21</v>
+      </c>
+      <c r="P23" s="12" t="n">
+        <f aca="false">R23-P22</f>
+        <v>21</v>
+      </c>
       <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="U23" s="12"/>
+      <c r="R23" s="14" t="n">
+        <f aca="false">U23</f>
+        <v>27</v>
+      </c>
+      <c r="U23" s="12" t="n">
+        <f aca="false">W23-U22</f>
+        <v>27</v>
+      </c>
       <c r="V23" s="13"/>
-      <c r="W23" s="14"/>
+      <c r="W23" s="14" t="n">
+        <f aca="false">Z18</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="6"/>
+      <c r="K25" s="6" t="n">
+        <f aca="false">H20</f>
+        <v>10</v>
+      </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="8"/>
-      <c r="P25" s="6"/>
+      <c r="M25" s="8" t="n">
+        <f aca="false">K25+K27</f>
+        <v>18</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <f aca="false">M25</f>
+        <v>18</v>
+      </c>
       <c r="Q25" s="7"/>
-      <c r="R25" s="8"/>
+      <c r="R25" s="8" t="n">
+        <f aca="false">P25+P27</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K26" s="9" t="s">
@@ -1689,21 +2776,45 @@
       <c r="K27" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="L27" s="11" t="n">
+        <f aca="false">M28-M25</f>
+        <v>4</v>
+      </c>
+      <c r="M27" s="11" t="n">
+        <f aca="false">P25-M25</f>
+        <v>0</v>
+      </c>
       <c r="P27" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
+      <c r="Q27" s="11" t="n">
+        <f aca="false">R28-R25</f>
+        <v>4</v>
+      </c>
+      <c r="R27" s="11" t="n">
+        <f aca="false">U20-R25</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="12"/>
+      <c r="K28" s="12" t="n">
+        <f aca="false">M28-K27</f>
+        <v>14</v>
+      </c>
       <c r="L28" s="13"/>
-      <c r="M28" s="14"/>
-      <c r="P28" s="12"/>
+      <c r="M28" s="14" t="n">
+        <f aca="false">P28</f>
+        <v>22</v>
+      </c>
+      <c r="P28" s="12" t="n">
+        <f aca="false">R28-P27</f>
+        <v>22</v>
+      </c>
       <c r="Q28" s="13"/>
-      <c r="R28" s="14"/>
+      <c r="R28" s="14" t="n">
+        <f aca="false">U23</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15"/>
@@ -1982,6 +3093,11 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B17 G17 G22 L17 L22 L27 Q17 Q22 Q27 V17 V22 AA17">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1998,13 +3114,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="3.83"/>
   </cols>
@@ -2098,7 +3214,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,7 +3250,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,7 +3282,9 @@
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -2234,7 +3352,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,7 +3381,53 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="n">
-        <v>0</v>
+        <f aca="false">A15+A17</f>
+        <v>6</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <f aca="false">C15</f>
+        <v>6</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="n">
+        <f aca="false">F15+F17</f>
+        <v>13</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <f aca="false">H15</f>
+        <v>13</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8" t="n">
+        <f aca="false">K15+K17</f>
+        <v>17</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <f aca="false">M15</f>
+        <v>17</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="8" t="n">
+        <f aca="false">P15+P17</f>
+        <v>20</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <f aca="false">MAX(R15,R21)</f>
+        <v>24</v>
+      </c>
+      <c r="V15" s="7"/>
+      <c r="W15" s="8" t="n">
+        <f aca="false">U15+U17</f>
+        <v>32</v>
+      </c>
+      <c r="Z15" s="6" t="n">
+        <f aca="false">MAX(W15,W21,W27)</f>
+        <v>33</v>
+      </c>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="8" t="n">
+        <f aca="false">Z15+Z17</f>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,6 +3436,31 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="K16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="P16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="U16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="Z16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
@@ -2279,30 +3468,382 @@
         <v>6</v>
       </c>
       <c r="B17" s="11" t="n">
+        <f aca="false">C18-C15</f>
         <v>0</v>
       </c>
       <c r="C17" s="11" t="n">
+        <f aca="false">MIN(F15,F21)-C15</f>
         <v>0</v>
       </c>
+      <c r="F17" s="10" t="n">
+        <f aca="false">H3</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <f aca="false">H18-H15</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <f aca="false">K15-H15</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <f aca="false">H5</f>
+        <v>4</v>
+      </c>
+      <c r="L17" s="11" t="n">
+        <f aca="false">M18-M15</f>
+        <v>5</v>
+      </c>
+      <c r="M17" s="11" t="n">
+        <f aca="false">P15-M15</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="10" t="n">
+        <f aca="false">H8</f>
+        <v>3</v>
+      </c>
+      <c r="Q17" s="11" t="n">
+        <f aca="false">R18-R15</f>
+        <v>5</v>
+      </c>
+      <c r="R17" s="11" t="n">
+        <f aca="false">U15-R15</f>
+        <v>4</v>
+      </c>
+      <c r="U17" s="10" t="n">
+        <f aca="false">H11</f>
+        <v>8</v>
+      </c>
+      <c r="V17" s="11" t="n">
+        <f aca="false">W18-W15</f>
+        <v>1</v>
+      </c>
+      <c r="W17" s="11" t="n">
+        <f aca="false">Z15-W15</f>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="10" t="n">
+        <f aca="false">H13</f>
+        <v>8</v>
+      </c>
+      <c r="AA17" s="11" t="n">
+        <f aca="false">AB18-AB15</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="n">
+        <f aca="false">C18-A17</f>
         <v>0</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="n">
         <f aca="false">MIN(F18,F24)</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <f aca="false">H18-F17</f>
+        <v>11</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14" t="n">
+        <f aca="false">K18</f>
+        <v>18</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <f aca="false">M18-K17</f>
+        <v>18</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14" t="n">
+        <f aca="false">P18</f>
+        <v>22</v>
+      </c>
+      <c r="P18" s="12" t="n">
+        <f aca="false">R18-P17</f>
+        <v>22</v>
+      </c>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14" t="n">
+        <f aca="false">U18</f>
+        <v>25</v>
+      </c>
+      <c r="U18" s="12" t="n">
+        <f aca="false">W18-U17</f>
+        <v>25</v>
+      </c>
+      <c r="V18" s="13"/>
+      <c r="W18" s="14" t="n">
+        <f aca="false">Z18</f>
+        <v>33</v>
+      </c>
+      <c r="Z18" s="12" t="n">
+        <f aca="false">AB18-Z17</f>
+        <v>33</v>
+      </c>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="14" t="n">
+        <f aca="false">AB15</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="6" t="n">
+        <f aca="false">C15</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8" t="n">
+        <f aca="false">F21+F23</f>
+        <v>13</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <f aca="false">H21</f>
+        <v>13</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8" t="n">
+        <f aca="false">K21+K23</f>
+        <v>17</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <f aca="false">MAX(M21,M27)</f>
+        <v>18</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="8" t="n">
+        <f aca="false">P21+P23</f>
+        <v>24</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <f aca="false">R21</f>
+        <v>24</v>
+      </c>
+      <c r="V21" s="7"/>
+      <c r="W21" s="8" t="n">
+        <f aca="false">U21+U23</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="K22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="P22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="U22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="10" t="n">
+        <f aca="false">H4</f>
+        <v>7</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <f aca="false">H24-H21</f>
         <v>0</v>
       </c>
+      <c r="H23" s="11" t="n">
+        <f aca="false">MIN(K21,K27)-H21</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <f aca="false">H6</f>
+        <v>4</v>
+      </c>
+      <c r="L23" s="11" t="n">
+        <f aca="false">M24-M21</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="11" t="n">
+        <f aca="false">P21-M21</f>
+        <v>1</v>
+      </c>
+      <c r="P23" s="10" t="n">
+        <f aca="false">H9</f>
+        <v>6</v>
+      </c>
+      <c r="Q23" s="11" t="n">
+        <f aca="false">R24-R21</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="11" t="n">
+        <f aca="false">MIN(U15,U21,U27)-R21</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="10" t="n">
+        <f aca="false">H10</f>
+        <v>2</v>
+      </c>
+      <c r="V23" s="11" t="n">
+        <f aca="false">W24-W21</f>
+        <v>7</v>
+      </c>
+      <c r="W23" s="11" t="n">
+        <f aca="false">Z15-W21</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="12" t="n">
+        <f aca="false">H24-F23</f>
+        <v>6</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14" t="n">
+        <f aca="false">MIN(K24,K30)</f>
+        <v>13</v>
+      </c>
+      <c r="K24" s="12" t="n">
+        <f aca="false">M24-K23</f>
+        <v>14</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14" t="n">
+        <f aca="false">P24</f>
+        <v>18</v>
+      </c>
+      <c r="P24" s="12" t="n">
+        <f aca="false">R24-P23</f>
+        <v>18</v>
+      </c>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14" t="n">
+        <f aca="false">MIN(U18,U24,U30)</f>
+        <v>24</v>
+      </c>
+      <c r="U24" s="12" t="n">
+        <f aca="false">W24-U23</f>
+        <v>31</v>
+      </c>
+      <c r="V24" s="13"/>
+      <c r="W24" s="14" t="n">
+        <f aca="false">Z18</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="6" t="n">
+        <f aca="false">H21</f>
+        <v>13</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8" t="n">
+        <f aca="false">K27+K29</f>
+        <v>18</v>
+      </c>
+      <c r="U27" s="6" t="n">
+        <f aca="false">R21</f>
+        <v>24</v>
+      </c>
+      <c r="V27" s="7"/>
+      <c r="W27" s="8" t="n">
+        <f aca="false">U27+U29</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="U28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="10" t="n">
+        <f aca="false">H7</f>
+        <v>5</v>
+      </c>
+      <c r="L29" s="11" t="n">
+        <f aca="false">M30-M27</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="11" t="n">
+        <f aca="false">P21-M27</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="10" t="n">
+        <f aca="false">H12</f>
+        <v>9</v>
+      </c>
+      <c r="V29" s="11" t="n">
+        <f aca="false">W30-W27</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="11" t="n">
+        <f aca="false">Z15-W27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="12" t="n">
+        <f aca="false">M30-K29</f>
+        <v>13</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="14" t="n">
+        <f aca="false">P24</f>
+        <v>18</v>
+      </c>
+      <c r="U30" s="12" t="n">
+        <f aca="false">W30-U29</f>
+        <v>24</v>
+      </c>
+      <c r="V30" s="13"/>
+      <c r="W30" s="14" t="n">
+        <f aca="false">Z18</f>
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="14">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="U28:W28"/>
   </mergeCells>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="B16 G16 G22 L16 L22 L28 Q16 Q22 V16 V22 V28 AA16">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17 G17 G23 H8 L17 L29 Q17 Q23 V17 V29 AA17">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17 G17 G23 L17 L23 L29 Q17 Q23 V17 V23 V29 AA17">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2313,5 +3854,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Netzplan_Übung.xlsx
+++ b/Netzplan_Übung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="30">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
   </si>
   <si>
     <t xml:space="preserve">L</t>
@@ -117,11 +117,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -146,6 +147,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB2B2B2"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -263,13 +271,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="75" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -284,79 +296,83 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,17 +389,32 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
-        <b val="1"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF996600"/>
         <sz val="10"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -430,7 +461,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB2B2B2"/>
@@ -442,7 +473,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -485,13 +516,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>116640</xdr:colOff>
+      <xdr:colOff>117000</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
@@ -502,7 +533,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1198440" y="8852400"/>
+          <a:off x="1196280" y="9200880"/>
           <a:ext cx="1773000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -528,15 +559,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -545,7 +576,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="812520" y="2602080"/>
+          <a:off x="810720" y="2951280"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -569,16 +600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>268200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -587,7 +618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2165040" y="2602080"/>
+          <a:off x="2430360" y="2951280"/>
           <a:ext cx="536040" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -611,16 +642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>268200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -629,7 +660,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2165040" y="3422880"/>
+          <a:off x="2430360" y="3772080"/>
           <a:ext cx="536040" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -653,16 +684,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -671,7 +702,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3517560" y="3422880"/>
+          <a:off x="3779280" y="3772080"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -695,16 +726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -713,7 +744,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3517560" y="2602080"/>
+          <a:off x="3779280" y="2951280"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -737,16 +768,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266760</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -755,7 +786,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4870080" y="2602080"/>
+          <a:off x="5128560" y="2951280"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -779,16 +810,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>267480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -797,7 +828,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6222240" y="2602080"/>
+          <a:off x="6477840" y="2951280"/>
           <a:ext cx="536400" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -821,16 +852,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -839,7 +870,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4870080" y="3422880"/>
+          <a:off x="5128560" y="3772080"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -863,16 +894,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -881,7 +912,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3517560" y="4235760"/>
+          <a:off x="3779280" y="4584960"/>
           <a:ext cx="535680" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -906,13 +937,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>8280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>254160</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
@@ -923,7 +954,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1083240" y="3421800"/>
+          <a:off x="1081440" y="3770640"/>
           <a:ext cx="252360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -947,14 +978,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>8280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>253800</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>254520</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
@@ -965,7 +996,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6222600" y="3421800"/>
+          <a:off x="6478560" y="3770640"/>
           <a:ext cx="252360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -989,16 +1020,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>254160</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1007,7 +1038,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2435760" y="4234680"/>
+          <a:off x="2700720" y="4583520"/>
           <a:ext cx="252360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1031,16 +1062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>254160</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1049,7 +1080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4870440" y="4234680"/>
+          <a:off x="5129280" y="4583520"/>
           <a:ext cx="252360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1073,16 +1104,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1091,7 +1122,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2435400" y="3446640"/>
+          <a:off x="2700360" y="3795840"/>
           <a:ext cx="8280" cy="780120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1115,14 +1146,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>24120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9720</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
@@ -1133,7 +1164,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5148000" y="3437640"/>
+          <a:off x="5406480" y="3786480"/>
           <a:ext cx="360" cy="788400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1158,15 +1189,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1175,7 +1206,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1082160" y="2602080"/>
+          <a:off x="1080000" y="2951280"/>
           <a:ext cx="0" cy="803880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1199,16 +1230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1217,7 +1248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6492600" y="2602080"/>
+          <a:off x="6747120" y="2951280"/>
           <a:ext cx="0" cy="803880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1373,15 +1404,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>258840</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:colOff>265320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1390,7 +1421,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1069920" y="2601000"/>
+          <a:off x="1070280" y="2601360"/>
           <a:ext cx="6120" cy="975240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1499,15 +1530,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1516,7 +1547,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2435040" y="3576600"/>
+          <a:off x="2435400" y="3576960"/>
           <a:ext cx="6120" cy="975240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1667,15 +1698,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1684,7 +1715,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3787560" y="3576600"/>
+          <a:off x="3787920" y="3576960"/>
           <a:ext cx="6120" cy="975240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1837,13 +1868,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>6840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1852,7 +1883,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5139720" y="2691360"/>
+          <a:off x="5139720" y="2691720"/>
           <a:ext cx="6480" cy="885240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1877,15 +1908,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1894,7 +1925,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5140080" y="3576600"/>
+          <a:off x="5140440" y="3576960"/>
           <a:ext cx="6120" cy="975240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2134,18 +2165,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:BV67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <pane xSplit="9" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="3.83"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2162,901 +2192,1147 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>44533</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>44534</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>44535</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>44538</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>44539</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>44541</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>44542</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>44543</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>44546</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>44547</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>44548</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>44549</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>44551</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>44553</v>
+      </c>
+      <c r="AH1" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="AI1" s="2" t="n">
+        <v>44555</v>
+      </c>
+      <c r="AJ1" s="2" t="n">
+        <v>44556</v>
+      </c>
+      <c r="AK1" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="AL1" s="2" t="n">
+        <v>44558</v>
+      </c>
+      <c r="AM1" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="AN1" s="2" t="n">
+        <v>44560</v>
+      </c>
+      <c r="AO1" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="AP1" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="AQ1" s="2" t="n">
+        <v>44563</v>
+      </c>
+      <c r="AR1" s="2" t="n">
+        <v>44564</v>
+      </c>
+      <c r="AS1" s="2" t="n">
+        <v>44565</v>
+      </c>
+      <c r="AT1" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="AU1" s="2" t="n">
+        <v>44567</v>
+      </c>
+      <c r="AV1" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="AW1" s="2" t="n">
+        <v>44569</v>
+      </c>
+      <c r="AX1" s="2" t="n">
+        <v>44570</v>
+      </c>
+      <c r="AY1" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="AZ1" s="2" t="n">
+        <v>44572</v>
+      </c>
+      <c r="BA1" s="2" t="n">
+        <v>44573</v>
+      </c>
+      <c r="BB1" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="BC1" s="2" t="n">
+        <v>44575</v>
+      </c>
+      <c r="BD1" s="2" t="n">
+        <v>44576</v>
+      </c>
+      <c r="BE1" s="2" t="n">
+        <v>44577</v>
+      </c>
+      <c r="BF1" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="BG1" s="2" t="n">
+        <v>44579</v>
+      </c>
+      <c r="BH1" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="BI1" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="BJ1" s="2" t="n">
+        <v>44582</v>
+      </c>
+      <c r="BK1" s="2" t="n">
+        <v>44583</v>
+      </c>
+      <c r="BL1" s="2" t="n">
+        <v>44584</v>
+      </c>
+      <c r="BM1" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="BN1" s="2" t="n">
+        <v>44586</v>
+      </c>
+      <c r="BO1" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="BP1" s="2" t="n">
+        <v>44588</v>
+      </c>
+      <c r="BQ1" s="2" t="n">
+        <v>44589</v>
+      </c>
+      <c r="BR1" s="2" t="n">
+        <v>44590</v>
+      </c>
+      <c r="BS1" s="2" t="n">
+        <v>44591</v>
+      </c>
+      <c r="BT1" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="BU1" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="BV1" s="2" t="n">
+        <v>44594</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <f aca="false">SUM(J2:CV2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <f aca="false">SUM(J3:CV3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <f aca="false">SUM(J4:CV4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <f aca="false">SUM(J5:CV5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <f aca="false">SUM(J6:CV6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <f aca="false">SUM(J7:CV7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <f aca="false">SUM(J8:CV8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <f aca="false">SUM(J9:CV9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2" t="n">
+      <c r="I10" s="6" t="n">
+        <f aca="false">SUM(J10:CV10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <f aca="false">SUM(J11:CV11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="I12" s="6" t="n">
+        <f aca="false">SUM(J12:CV12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2" t="n">
-        <v>4</v>
+      <c r="I13" s="6" t="n">
+        <f aca="false">SUM(J13:CV13)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="n">
+      <c r="A15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="n">
         <f aca="false">A15+A17</f>
         <v>2</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="8" t="n">
         <f aca="false">C15</f>
         <v>2</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8" t="n">
+      <c r="G15" s="9"/>
+      <c r="H15" s="10" t="n">
         <f aca="false">F15+F17</f>
         <v>10</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="8" t="n">
         <f aca="false">H15</f>
         <v>10</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8" t="n">
+      <c r="L15" s="9"/>
+      <c r="M15" s="10" t="n">
         <f aca="false">K15+K17</f>
         <v>16</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="8" t="n">
         <f aca="false">M15</f>
         <v>16</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="8" t="n">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10" t="n">
         <f aca="false">P15+P17</f>
         <v>21</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="U15" s="8" t="n">
         <f aca="false">R15</f>
         <v>21</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="8" t="n">
+      <c r="V15" s="9"/>
+      <c r="W15" s="10" t="n">
         <f aca="false">U15+U17</f>
         <v>29</v>
       </c>
-      <c r="Z15" s="6" t="n">
+      <c r="Z15" s="8" t="n">
         <f aca="false">MAX(W15,W20)</f>
         <v>29</v>
       </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="8" t="n">
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="10" t="n">
         <f aca="false">Z15+Z17</f>
         <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="K16" s="9" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="K16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="P16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="U16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="Z16" s="9" t="s">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="P16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="U16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="Z16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="12" t="n">
         <f aca="false">H2</f>
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="13" t="n">
         <f aca="false">C18-C15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="13" t="n">
         <f aca="false">MIN(F15,F20)-C15</f>
         <v>0</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="13" t="n">
         <f aca="false">H18-H15</f>
         <v>0</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="H17" s="13" t="n">
         <f aca="false">K15-H15</f>
         <v>0</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="L17" s="11" t="n">
+      <c r="L17" s="13" t="n">
         <f aca="false">M18-M15</f>
         <v>0</v>
       </c>
-      <c r="M17" s="11" t="n">
+      <c r="M17" s="13" t="n">
         <f aca="false">P15-M15</f>
         <v>0</v>
       </c>
-      <c r="P17" s="10" t="n">
+      <c r="P17" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="Q17" s="11" t="n">
+      <c r="Q17" s="13" t="n">
         <f aca="false">R18-R15</f>
         <v>0</v>
       </c>
-      <c r="R17" s="11" t="n">
+      <c r="R17" s="13" t="n">
         <f aca="false">U15-R15</f>
         <v>0</v>
       </c>
-      <c r="U17" s="10" t="n">
+      <c r="U17" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="V17" s="11" t="n">
+      <c r="V17" s="13" t="n">
         <f aca="false">W18-W15</f>
         <v>0</v>
       </c>
-      <c r="W17" s="11" t="n">
+      <c r="W17" s="13" t="n">
         <f aca="false">Z15-W15</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="10" t="n">
+      <c r="Z17" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="13" t="n">
         <f aca="false">AB18-AB15</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="11"/>
+      <c r="AB17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="14" t="n">
         <f aca="false">C18-A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14" t="n">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="n">
         <f aca="false">MIN(F18,F23)</f>
         <v>2</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="14" t="n">
         <f aca="false">H18-F17</f>
         <v>2</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14" t="n">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16" t="n">
         <f aca="false">K18</f>
         <v>10</v>
       </c>
-      <c r="K18" s="12" t="n">
+      <c r="K18" s="14" t="n">
         <f aca="false">M18-K17</f>
         <v>10</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14" t="n">
+      <c r="L18" s="15"/>
+      <c r="M18" s="16" t="n">
         <f aca="false">P18</f>
         <v>16</v>
       </c>
-      <c r="P18" s="12" t="n">
+      <c r="P18" s="14" t="n">
         <f aca="false">R18-P17</f>
         <v>16</v>
       </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14" t="n">
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16" t="n">
         <f aca="false">U18</f>
         <v>21</v>
       </c>
-      <c r="U18" s="12" t="n">
+      <c r="U18" s="14" t="n">
         <f aca="false">W18-U17</f>
         <v>21</v>
       </c>
-      <c r="V18" s="13"/>
-      <c r="W18" s="14" t="n">
+      <c r="V18" s="15"/>
+      <c r="W18" s="16" t="n">
         <f aca="false">Z18</f>
         <v>29</v>
       </c>
-      <c r="Z18" s="12" t="n">
+      <c r="Z18" s="14" t="n">
         <f aca="false">AB18-Z17</f>
         <v>29</v>
       </c>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="14" t="n">
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="16" t="n">
         <f aca="false">AB15</f>
         <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="8" t="n">
         <f aca="false">C15</f>
         <v>2</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8" t="n">
+      <c r="G20" s="9"/>
+      <c r="H20" s="10" t="n">
         <f aca="false">F20+F22</f>
         <v>10</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="8" t="n">
         <f aca="false">H20</f>
         <v>10</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8" t="n">
+      <c r="L20" s="9"/>
+      <c r="M20" s="10" t="n">
         <f aca="false">K20+K22</f>
         <v>18</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="8" t="n">
         <f aca="false">M20</f>
         <v>18</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="8" t="n">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10" t="n">
         <f aca="false">P20+P22</f>
         <v>24</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="U20" s="8" t="n">
         <f aca="false">MAX(R20,R25)</f>
         <v>24</v>
       </c>
-      <c r="V20" s="7"/>
-      <c r="W20" s="8" t="n">
+      <c r="V20" s="9"/>
+      <c r="W20" s="10" t="n">
         <f aca="false">U20+U22</f>
         <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="K21" s="9" t="s">
+      <c r="F21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="P21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="U21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="K21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="P21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="U21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="10" t="n">
+      <c r="F22" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="13" t="n">
         <f aca="false">H23-H20</f>
         <v>3</v>
       </c>
-      <c r="H22" s="11" t="n">
+      <c r="H22" s="13" t="n">
         <f aca="false">MIN(K20,K25)-H20</f>
         <v>0</v>
       </c>
-      <c r="K22" s="10" t="n">
+      <c r="K22" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="L22" s="11" t="n">
+      <c r="L22" s="13" t="n">
         <f aca="false">M23-M20</f>
         <v>3</v>
       </c>
-      <c r="M22" s="11" t="n">
+      <c r="M22" s="13" t="n">
         <f aca="false">P20-M20</f>
         <v>0</v>
       </c>
-      <c r="P22" s="10" t="n">
+      <c r="P22" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="Q22" s="11" t="n">
+      <c r="Q22" s="13" t="n">
         <f aca="false">R23-R20</f>
         <v>3</v>
       </c>
-      <c r="R22" s="11" t="n">
+      <c r="R22" s="13" t="n">
         <f aca="false">U20-R20</f>
         <v>0</v>
       </c>
-      <c r="U22" s="10" t="n">
+      <c r="U22" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="V22" s="11" t="n">
+      <c r="V22" s="13" t="n">
         <f aca="false">W23-W20</f>
         <v>3</v>
       </c>
-      <c r="W22" s="11" t="n">
+      <c r="W22" s="13" t="n">
         <f aca="false">Z15-W20</f>
         <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="12" t="n">
+      <c r="F23" s="14" t="n">
         <f aca="false">H23-F22</f>
         <v>5</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14" t="n">
+      <c r="G23" s="15"/>
+      <c r="H23" s="16" t="n">
         <f aca="false">MIN(K23,K28)</f>
         <v>13</v>
       </c>
-      <c r="K23" s="12" t="n">
+      <c r="K23" s="14" t="n">
         <f aca="false">M23-K22</f>
         <v>13</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14" t="n">
+      <c r="L23" s="15"/>
+      <c r="M23" s="16" t="n">
         <f aca="false">P23</f>
         <v>21</v>
       </c>
-      <c r="P23" s="12" t="n">
+      <c r="P23" s="14" t="n">
         <f aca="false">R23-P22</f>
         <v>21</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14" t="n">
+      <c r="Q23" s="15"/>
+      <c r="R23" s="16" t="n">
         <f aca="false">U23</f>
         <v>27</v>
       </c>
-      <c r="U23" s="12" t="n">
+      <c r="U23" s="14" t="n">
         <f aca="false">W23-U22</f>
         <v>27</v>
       </c>
-      <c r="V23" s="13"/>
-      <c r="W23" s="14" t="n">
+      <c r="V23" s="15"/>
+      <c r="W23" s="16" t="n">
         <f aca="false">Z18</f>
         <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="6" t="n">
+      <c r="K25" s="8" t="n">
         <f aca="false">H20</f>
         <v>10</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8" t="n">
+      <c r="L25" s="9"/>
+      <c r="M25" s="10" t="n">
         <f aca="false">K25+K27</f>
         <v>18</v>
       </c>
-      <c r="P25" s="6" t="n">
+      <c r="P25" s="8" t="n">
         <f aca="false">M25</f>
         <v>18</v>
       </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="8" t="n">
+      <c r="Q25" s="9"/>
+      <c r="R25" s="10" t="n">
         <f aca="false">P25+P27</f>
         <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="P26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="P26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="L27" s="11" t="n">
+      <c r="L27" s="13" t="n">
         <f aca="false">M28-M25</f>
         <v>4</v>
       </c>
-      <c r="M27" s="11" t="n">
+      <c r="M27" s="13" t="n">
         <f aca="false">P25-M25</f>
         <v>0</v>
       </c>
-      <c r="P27" s="10" t="n">
+      <c r="P27" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="Q27" s="11" t="n">
+      <c r="Q27" s="13" t="n">
         <f aca="false">R28-R25</f>
         <v>4</v>
       </c>
-      <c r="R27" s="11" t="n">
+      <c r="R27" s="13" t="n">
         <f aca="false">U20-R25</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="12" t="n">
+      <c r="K28" s="14" t="n">
         <f aca="false">M28-K27</f>
         <v>14</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="14" t="n">
+      <c r="L28" s="15"/>
+      <c r="M28" s="16" t="n">
         <f aca="false">P28</f>
         <v>22</v>
       </c>
-      <c r="P28" s="12" t="n">
+      <c r="P28" s="14" t="n">
         <f aca="false">R28-P27</f>
         <v>22</v>
       </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="14" t="n">
+      <c r="Q28" s="15"/>
+      <c r="R28" s="16" t="n">
         <f aca="false">U23</f>
         <v>27</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17" t="s">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="16"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="19" t="s">
+      <c r="A56" s="17"/>
+      <c r="B56" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="16"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="16"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15"/>
-      <c r="B58" s="17" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17" t="s">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="16"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="16"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="18"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15"/>
-      <c r="B60" s="22" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="16"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15"/>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="16"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15"/>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="16"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="18"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15"/>
-      <c r="B63" s="22" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="16"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15"/>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="16"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="18"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="15"/>
-      <c r="B65" s="21" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="16"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15"/>
-      <c r="B66" s="24" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3083,19 +3359,12 @@
     <mergeCell ref="C64:K64"/>
     <mergeCell ref="C65:K65"/>
   </mergeCells>
-  <conditionalFormatting sqref="B16 G16 G21 L16 L21 L26 Q16 Q21 Q26 V16 V21 AA16">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
+  <conditionalFormatting sqref="J1:CF13">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57 B65">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17 G17 G22 L17 L22 L27 Q17 Q22 Q27 V17 V22 AA17">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>0</formula>
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3120,7 +3389,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="3.83"/>
   </cols>
@@ -3144,673 +3413,673 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="n">
+      <c r="A15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="n">
         <f aca="false">A15+A17</f>
         <v>6</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="8" t="n">
         <f aca="false">C15</f>
         <v>6</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8" t="n">
+      <c r="G15" s="9"/>
+      <c r="H15" s="10" t="n">
         <f aca="false">F15+F17</f>
         <v>13</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="8" t="n">
         <f aca="false">H15</f>
         <v>13</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8" t="n">
+      <c r="L15" s="9"/>
+      <c r="M15" s="10" t="n">
         <f aca="false">K15+K17</f>
         <v>17</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="8" t="n">
         <f aca="false">M15</f>
         <v>17</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="8" t="n">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10" t="n">
         <f aca="false">P15+P17</f>
         <v>20</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="U15" s="8" t="n">
         <f aca="false">MAX(R15,R21)</f>
         <v>24</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="8" t="n">
+      <c r="V15" s="9"/>
+      <c r="W15" s="10" t="n">
         <f aca="false">U15+U17</f>
         <v>32</v>
       </c>
-      <c r="Z15" s="6" t="n">
+      <c r="Z15" s="8" t="n">
         <f aca="false">MAX(W15,W21,W27)</f>
         <v>33</v>
       </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="8" t="n">
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="10" t="n">
         <f aca="false">Z15+Z17</f>
         <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="K16" s="9" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="K16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="P16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="U16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="Z16" s="9" t="s">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="P16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="U16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="Z16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="12" t="n">
         <f aca="false">H2</f>
         <v>6</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="13" t="n">
         <f aca="false">C18-C15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="13" t="n">
         <f aca="false">MIN(F15,F21)-C15</f>
         <v>0</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="12" t="n">
         <f aca="false">H3</f>
         <v>7</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="13" t="n">
         <f aca="false">H18-H15</f>
         <v>5</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="H17" s="13" t="n">
         <f aca="false">K15-H15</f>
         <v>0</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="12" t="n">
         <f aca="false">H5</f>
         <v>4</v>
       </c>
-      <c r="L17" s="11" t="n">
+      <c r="L17" s="13" t="n">
         <f aca="false">M18-M15</f>
         <v>5</v>
       </c>
-      <c r="M17" s="11" t="n">
+      <c r="M17" s="13" t="n">
         <f aca="false">P15-M15</f>
         <v>0</v>
       </c>
-      <c r="P17" s="10" t="n">
+      <c r="P17" s="12" t="n">
         <f aca="false">H8</f>
         <v>3</v>
       </c>
-      <c r="Q17" s="11" t="n">
+      <c r="Q17" s="13" t="n">
         <f aca="false">R18-R15</f>
         <v>5</v>
       </c>
-      <c r="R17" s="11" t="n">
+      <c r="R17" s="13" t="n">
         <f aca="false">U15-R15</f>
         <v>4</v>
       </c>
-      <c r="U17" s="10" t="n">
+      <c r="U17" s="12" t="n">
         <f aca="false">H11</f>
         <v>8</v>
       </c>
-      <c r="V17" s="11" t="n">
+      <c r="V17" s="13" t="n">
         <f aca="false">W18-W15</f>
         <v>1</v>
       </c>
-      <c r="W17" s="11" t="n">
+      <c r="W17" s="13" t="n">
         <f aca="false">Z15-W15</f>
         <v>1</v>
       </c>
-      <c r="Z17" s="10" t="n">
+      <c r="Z17" s="12" t="n">
         <f aca="false">H13</f>
         <v>8</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="13" t="n">
         <f aca="false">AB18-AB15</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="11"/>
+      <c r="AB17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="14" t="n">
         <f aca="false">C18-A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14" t="n">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="n">
         <f aca="false">MIN(F18,F24)</f>
         <v>6</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="14" t="n">
         <f aca="false">H18-F17</f>
         <v>11</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14" t="n">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16" t="n">
         <f aca="false">K18</f>
         <v>18</v>
       </c>
-      <c r="K18" s="12" t="n">
+      <c r="K18" s="14" t="n">
         <f aca="false">M18-K17</f>
         <v>18</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14" t="n">
+      <c r="L18" s="15"/>
+      <c r="M18" s="16" t="n">
         <f aca="false">P18</f>
         <v>22</v>
       </c>
-      <c r="P18" s="12" t="n">
+      <c r="P18" s="14" t="n">
         <f aca="false">R18-P17</f>
         <v>22</v>
       </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14" t="n">
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16" t="n">
         <f aca="false">U18</f>
         <v>25</v>
       </c>
-      <c r="U18" s="12" t="n">
+      <c r="U18" s="14" t="n">
         <f aca="false">W18-U17</f>
         <v>25</v>
       </c>
-      <c r="V18" s="13"/>
-      <c r="W18" s="14" t="n">
+      <c r="V18" s="15"/>
+      <c r="W18" s="16" t="n">
         <f aca="false">Z18</f>
         <v>33</v>
       </c>
-      <c r="Z18" s="12" t="n">
+      <c r="Z18" s="14" t="n">
         <f aca="false">AB18-Z17</f>
         <v>33</v>
       </c>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="14" t="n">
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="16" t="n">
         <f aca="false">AB15</f>
         <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="8" t="n">
         <f aca="false">C15</f>
         <v>6</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8" t="n">
+      <c r="G21" s="9"/>
+      <c r="H21" s="10" t="n">
         <f aca="false">F21+F23</f>
         <v>13</v>
       </c>
-      <c r="K21" s="6" t="n">
+      <c r="K21" s="8" t="n">
         <f aca="false">H21</f>
         <v>13</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8" t="n">
+      <c r="L21" s="9"/>
+      <c r="M21" s="10" t="n">
         <f aca="false">K21+K23</f>
         <v>17</v>
       </c>
-      <c r="P21" s="6" t="n">
+      <c r="P21" s="8" t="n">
         <f aca="false">MAX(M21,M27)</f>
         <v>18</v>
       </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="8" t="n">
+      <c r="Q21" s="9"/>
+      <c r="R21" s="10" t="n">
         <f aca="false">P21+P23</f>
         <v>24</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="U21" s="8" t="n">
         <f aca="false">R21</f>
         <v>24</v>
       </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="8" t="n">
+      <c r="V21" s="9"/>
+      <c r="W21" s="10" t="n">
         <f aca="false">U21+U23</f>
         <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="K22" s="9" t="s">
+      <c r="F22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="P22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="U22" s="9" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="P22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="U22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="10" t="n">
+      <c r="F23" s="12" t="n">
         <f aca="false">H4</f>
         <v>7</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="13" t="n">
         <f aca="false">H24-H21</f>
         <v>0</v>
       </c>
-      <c r="H23" s="11" t="n">
+      <c r="H23" s="13" t="n">
         <f aca="false">MIN(K21,K27)-H21</f>
         <v>0</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="12" t="n">
         <f aca="false">H6</f>
         <v>4</v>
       </c>
-      <c r="L23" s="11" t="n">
+      <c r="L23" s="13" t="n">
         <f aca="false">M24-M21</f>
         <v>1</v>
       </c>
-      <c r="M23" s="11" t="n">
+      <c r="M23" s="13" t="n">
         <f aca="false">P21-M21</f>
         <v>1</v>
       </c>
-      <c r="P23" s="10" t="n">
+      <c r="P23" s="12" t="n">
         <f aca="false">H9</f>
         <v>6</v>
       </c>
-      <c r="Q23" s="11" t="n">
+      <c r="Q23" s="13" t="n">
         <f aca="false">R24-R21</f>
         <v>0</v>
       </c>
-      <c r="R23" s="11" t="n">
+      <c r="R23" s="13" t="n">
         <f aca="false">MIN(U15,U21,U27)-R21</f>
         <v>0</v>
       </c>
-      <c r="U23" s="10" t="n">
+      <c r="U23" s="12" t="n">
         <f aca="false">H10</f>
         <v>2</v>
       </c>
-      <c r="V23" s="11" t="n">
+      <c r="V23" s="13" t="n">
         <f aca="false">W24-W21</f>
         <v>7</v>
       </c>
-      <c r="W23" s="11" t="n">
+      <c r="W23" s="13" t="n">
         <f aca="false">Z15-W21</f>
         <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="12" t="n">
+      <c r="F24" s="14" t="n">
         <f aca="false">H24-F23</f>
         <v>6</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14" t="n">
+      <c r="G24" s="15"/>
+      <c r="H24" s="16" t="n">
         <f aca="false">MIN(K24,K30)</f>
         <v>13</v>
       </c>
-      <c r="K24" s="12" t="n">
+      <c r="K24" s="14" t="n">
         <f aca="false">M24-K23</f>
         <v>14</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14" t="n">
+      <c r="L24" s="15"/>
+      <c r="M24" s="16" t="n">
         <f aca="false">P24</f>
         <v>18</v>
       </c>
-      <c r="P24" s="12" t="n">
+      <c r="P24" s="14" t="n">
         <f aca="false">R24-P23</f>
         <v>18</v>
       </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14" t="n">
+      <c r="Q24" s="15"/>
+      <c r="R24" s="16" t="n">
         <f aca="false">MIN(U18,U24,U30)</f>
         <v>24</v>
       </c>
-      <c r="U24" s="12" t="n">
+      <c r="U24" s="14" t="n">
         <f aca="false">W24-U23</f>
         <v>31</v>
       </c>
-      <c r="V24" s="13"/>
-      <c r="W24" s="14" t="n">
+      <c r="V24" s="15"/>
+      <c r="W24" s="16" t="n">
         <f aca="false">Z18</f>
         <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="6" t="n">
+      <c r="K27" s="8" t="n">
         <f aca="false">H21</f>
         <v>13</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8" t="n">
+      <c r="L27" s="9"/>
+      <c r="M27" s="10" t="n">
         <f aca="false">K27+K29</f>
         <v>18</v>
       </c>
-      <c r="U27" s="6" t="n">
+      <c r="U27" s="8" t="n">
         <f aca="false">R21</f>
         <v>24</v>
       </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="8" t="n">
+      <c r="V27" s="9"/>
+      <c r="W27" s="10" t="n">
         <f aca="false">U27+U29</f>
         <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="U28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
+      <c r="K28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="U28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="12" t="n">
         <f aca="false">H7</f>
         <v>5</v>
       </c>
-      <c r="L29" s="11" t="n">
+      <c r="L29" s="13" t="n">
         <f aca="false">M30-M27</f>
         <v>0</v>
       </c>
-      <c r="M29" s="11" t="n">
+      <c r="M29" s="13" t="n">
         <f aca="false">P21-M27</f>
         <v>0</v>
       </c>
-      <c r="U29" s="10" t="n">
+      <c r="U29" s="12" t="n">
         <f aca="false">H12</f>
         <v>9</v>
       </c>
-      <c r="V29" s="11" t="n">
+      <c r="V29" s="13" t="n">
         <f aca="false">W30-W27</f>
         <v>0</v>
       </c>
-      <c r="W29" s="11" t="n">
+      <c r="W29" s="13" t="n">
         <f aca="false">Z15-W27</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="12" t="n">
+      <c r="K30" s="14" t="n">
         <f aca="false">M30-K29</f>
         <v>13</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="14" t="n">
+      <c r="L30" s="15"/>
+      <c r="M30" s="16" t="n">
         <f aca="false">P24</f>
         <v>18</v>
       </c>
-      <c r="U30" s="12" t="n">
+      <c r="U30" s="14" t="n">
         <f aca="false">W30-U29</f>
         <v>24</v>
       </c>
-      <c r="V30" s="13"/>
-      <c r="W30" s="14" t="n">
+      <c r="V30" s="15"/>
+      <c r="W30" s="16" t="n">
         <f aca="false">Z18</f>
         <v>33</v>
       </c>
@@ -3833,17 +4102,17 @@
     <mergeCell ref="U28:W28"/>
   </mergeCells>
   <conditionalFormatting sqref="B16 G16 G22 L16 L22 L28 Q16 Q22 V16 V22 V28 AA16">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17 G17 G23 H8 L17 L29 Q17 Q23 V17 V29 AA17">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17 G17 G23 L17 L23 L29 Q17 Q23 V17 V23 V29 AA17">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Netzplan_Übung.xlsx
+++ b/Netzplan_Übung.xlsx
@@ -2170,7 +2170,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="9" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topRight" activeCell="M3" activeCellId="0" sqref="J2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3386,7 +3386,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="J2:M3 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
